--- a/providers.xlsx
+++ b/providers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Fecha creado</t>
   </si>
@@ -34,6 +34,21 @@
     <t>almacen proveeduria</t>
   </si>
   <si>
+    <t>07/07/2024</t>
+  </si>
+  <si>
+    <t>hola</t>
+  </si>
+  <si>
+    <t>11/07/2024</t>
+  </si>
+  <si>
+    <t>prue</t>
+  </si>
+  <si>
+    <t>micros</t>
+  </si>
+  <si>
     <t>disbatery / filtros internacional</t>
   </si>
   <si>
@@ -49,15 +64,24 @@
     <t>disbatery / repuestos hg / filtros internacional</t>
   </si>
   <si>
+    <t>como</t>
+  </si>
+  <si>
     <t>distribuidora 1503</t>
   </si>
   <si>
+    <t>s</t>
+  </si>
+  <si>
     <t>multiservicios juan de abreu</t>
   </si>
   <si>
     <t>multiservicios express sdn 2020</t>
   </si>
   <si>
+    <t>ksj</t>
+  </si>
+  <si>
     <t>covencauchos</t>
   </si>
   <si>
@@ -73,12 +97,18 @@
     <t>color car</t>
   </si>
   <si>
+    <t>jo</t>
+  </si>
+  <si>
     <t>tubus servicios</t>
   </si>
   <si>
     <t>filtros internacional</t>
   </si>
   <si>
+    <t>kk</t>
+  </si>
+  <si>
     <t>netor jose gil tribiño</t>
   </si>
   <si>
@@ -97,13 +127,25 @@
     <t>disbatery/ almacen proveeduria / filtros internacional</t>
   </si>
   <si>
+    <t>ks</t>
+  </si>
+  <si>
+    <t>kjds.4</t>
+  </si>
+  <si>
     <t>merkatodo</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
+    <t>aja.3</t>
+  </si>
+  <si>
     <t>motores claret</t>
+  </si>
+  <si>
+    <t>aja.2</t>
   </si>
   <si>
     <t>filtros internaciones</t>
@@ -173,7 +215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -219,10 +261,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>5</v>
@@ -230,10 +272,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>5</v>
@@ -241,10 +283,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="0" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>5</v>
@@ -255,7 +297,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>5</v>
@@ -266,7 +308,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>5</v>
@@ -277,7 +319,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>5</v>
@@ -288,7 +330,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>5</v>
@@ -299,7 +341,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>5</v>
@@ -307,10 +349,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>5</v>
@@ -321,7 +363,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>5</v>
@@ -329,10 +371,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>5</v>
@@ -343,7 +385,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>5</v>
@@ -354,7 +396,7 @@
         <v>3</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>5</v>
@@ -362,10 +404,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>5</v>
@@ -376,7 +418,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>5</v>
@@ -387,7 +429,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19" s="0" t="s">
         <v>5</v>
@@ -398,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20" s="0" t="s">
         <v>5</v>
@@ -406,10 +448,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0" t="s">
         <v>5</v>
@@ -420,7 +462,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="0" t="s">
         <v>5</v>
@@ -431,7 +473,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="0" t="s">
         <v>5</v>
@@ -439,10 +481,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="0" t="s">
         <v>5</v>
@@ -453,7 +495,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="0" t="s">
         <v>5</v>
@@ -464,7 +506,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="0" t="s">
         <v>5</v>
@@ -472,10 +514,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" s="0" t="s">
         <v>5</v>
@@ -486,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" s="0" t="s">
         <v>5</v>
@@ -497,7 +539,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" s="0" t="s">
         <v>5</v>
@@ -508,9 +550,152 @@
         <v>3</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="0" t="s">
         <v>5</v>
       </c>
     </row>
